--- a/excelhere/room_six.xlsx
+++ b/excelhere/room_six.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>ㄷㅈ</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>ㅈㅈㄷ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>ㄷㅈㄷㅈ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/excelhere/room_six.xlsx
+++ b/excelhere/room_six.xlsx
@@ -433,37 +433,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ㄷㅈ</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ㅈㅈㄷ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ㄷㅈㄷㅈ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excelhere/room_six.xlsx
+++ b/excelhere/room_six.xlsx
@@ -433,14 +433,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">daniel </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>kim</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -451,14 +474,120 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>수저</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>780</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>부의금가방</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>줄</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>접시100</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>부의금가방</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>줄</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>식탁보</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelhere/room_six.xlsx
+++ b/excelhere/room_six.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1242329</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">daniel </t>
+          <t>234</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>kim</t>
+          <t>다라3</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>수저</t>
+          <t>새우튀김</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,97 +494,13 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>780</v>
+        <v>2600</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>부의금가방</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>줄</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>접시100</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>부의금가방</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>줄</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>식탁보</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6000</v>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_six.xlsx
+++ b/excelhere/room_six.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1242329</t>
+          <t>11212</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>Stanley</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>다라3</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>새우튀김</t>
+          <t>수저</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,13 +494,76 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>2600</v>
+        <v>780</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>2600</v>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>접시180(1)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>930</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>접시100</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_six.xlsx
+++ b/excelhere/room_six.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>ㅊ폿</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/excelhere/room_six.xlsx
+++ b/excelhere/room_six.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>11212</t>
+          <t>0006</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Stanley</t>
+          <t>서경구</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ㅊ폿</t>
+          <t>성강민</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,48 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>식탁보</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>밥공기(1)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelhere/room_six.xlsx
+++ b/excelhere/room_six.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>서경구</t>
+          <t>김장김치</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>수저</t>
+          <t>된장국</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,61 +494,61 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>780</v>
+        <v>3000</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>780</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>접시180(1)</t>
+          <t>부의금가방</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>줄</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>신라면(컵)</t>
+          <t>종이컵</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>줄</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>930</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>930</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>접시100</t>
+          <t>에어베게</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,19 +557,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>식탁보</t>
+          <t>신라면(컵)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,19 +578,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6000</v>
+        <v>930</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>6000</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>밥공기(1)</t>
+          <t>김밥</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -599,13 +599,55 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>6000</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>대패삼겹살</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
